--- a/Templates/TEMPLATE_Cal factors for absolute TOT PROTEIN quantification.xlsx
+++ b/Templates/TEMPLATE_Cal factors for absolute TOT PROTEIN quantification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panteleimontakis/Library/Mobile Documents/com~apple~CloudDocs/Eggrafa/PROSWPIKA/CVs/Imp/Proteinuria_platform/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panteleimontakis/Documents/GitHub/NMRpQuant/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7BCBFB-F93A-104A-B8C7-0F4625536087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC171B-254A-314D-8E03-6A0165656C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20260" yWindow="-19860" windowWidth="33600" windowHeight="19460" xr2:uid="{8F4B2633-99A1-3C4E-98C4-6136B669331B}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>Reference Signal Region for integration (ppm) (mandatory)</t>
   </si>
   <si>
-    <t>Calibration factor for absolute quantification (leave empty if unknown: results will be in a.u.) (at least one value is mandatory)</t>
+    <t>Calibration factor for absolute quantification (leave empty if unknown: results will be in a.u.) (at least one value is mandatory for absolute quantification)</t>
   </si>
 </sst>
 </file>
@@ -493,12 +493,12 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C10:C11"/>
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>

--- a/Templates/TEMPLATE_Cal factors for absolute TOT PROTEIN quantification.xlsx
+++ b/Templates/TEMPLATE_Cal factors for absolute TOT PROTEIN quantification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panteleimontakis/Documents/GitHub/NMRpQuant/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC171B-254A-314D-8E03-6A0165656C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DDF405-DA18-964E-987F-D28552899085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20260" yWindow="-19860" windowWidth="33600" windowHeight="19460" xr2:uid="{8F4B2633-99A1-3C4E-98C4-6136B669331B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26780" xr2:uid="{8F4B2633-99A1-3C4E-98C4-6136B669331B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Templates/TEMPLATE_Cal factors for absolute TOT PROTEIN quantification.xlsx
+++ b/Templates/TEMPLATE_Cal factors for absolute TOT PROTEIN quantification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panteleimontakis/Documents/GitHub/NMRpQuant/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DDF405-DA18-964E-987F-D28552899085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B414FA-1D97-6646-B1FF-A435726710BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26780" xr2:uid="{8F4B2633-99A1-3C4E-98C4-6136B669331B}"/>
   </bookViews>
@@ -69,13 +69,13 @@
     <t xml:space="preserve"> ERROR factors (leave empty if unknown: errors will not be printed)</t>
   </si>
   <si>
-    <t>Reference compound concentration (mandatory)</t>
-  </si>
-  <si>
     <t>Reference Signal Region for integration (ppm) (mandatory)</t>
   </si>
   <si>
     <t>Calibration factor for absolute quantification (leave empty if unknown: results will be in a.u.) (at least one value is mandatory for absolute quantification)</t>
+  </si>
+  <si>
+    <t>Reference compound concentration (mandatory) --&gt; Corresponding to the region of integration per proton</t>
   </si>
 </sst>
 </file>
@@ -493,12 +493,12 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
@@ -523,7 +523,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -541,9 +541,9 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
